--- a/StoreManagement.Website/Resource/ImportedTemplate/Suppliers.xlsx
+++ b/StoreManagement.Website/Resource/ImportedTemplate/Suppliers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>T_Master_ProductGroups</t>
   </si>
@@ -38,12 +38,6 @@
     <t>T_Master_Producers</t>
   </si>
   <si>
-    <t>Tên khách hàng</t>
-  </si>
-  <si>
-    <t>Mã khách hàng</t>
-  </si>
-  <si>
     <t>SĐT</t>
   </si>
   <si>
@@ -53,16 +47,46 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Sinh nhật</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Là khách sỉ?</t>
+    <t>Tên nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Mã nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Cty TNHH NITAS</t>
+  </si>
+  <si>
+    <t>08.3124.1234</t>
+  </si>
+  <si>
+    <t>contacter@nitas.com</t>
+  </si>
+  <si>
+    <t>TP Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Cty TNHH FOTA</t>
+  </si>
+  <si>
+    <t>08.3765.1234</t>
+  </si>
+  <si>
+    <t>contacter@fota.com</t>
+  </si>
+  <si>
+    <t>Cty TNHH Đồng Tiến</t>
+  </si>
+  <si>
+    <t>08.3876.1234</t>
+  </si>
+  <si>
+    <t>contacter@dongtien.com</t>
   </si>
 </sst>
 </file>
@@ -410,69 +434,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D995">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I975 E2:E4 D5:E975">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C975 D2:D4">
       <formula1>ListProducerNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K995 E2:F995">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G995">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F975">
       <formula1>"0,5,10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C995">
-      <formula1>ListProductGroupNames</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
